--- a/docs/trialSwitch.xlsx
+++ b/docs/trialSwitch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG4000\Desktop\comms\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3698196E-BAEE-447F-A8AF-32757C97292C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D893D874-31B6-44A7-BF21-363799EE5432}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="7640" activeTab="1" xr2:uid="{D76963E8-864B-457D-9DF5-20326BDCEA33}"/>
+    <workbookView xWindow="0" yWindow="1640" windowWidth="19200" windowHeight="7640" activeTab="1" xr2:uid="{D76963E8-864B-457D-9DF5-20326BDCEA33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -970,11 +970,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6C0FE-C9D2-4B77-A5CF-E298AC22F6EE}">
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
